--- a/src/main/resources/BillData.xlsx
+++ b/src/main/resources/BillData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\ParaBank\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5980F9C-0F8A-44B0-AC37-1A5D00F56172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91241238-B890-40F9-B427-D0388A460ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88A05060-9F49-4B41-BFC9-0B8A4F8DC7E7}"/>
   </bookViews>
@@ -36,48 +36,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>PayeeName</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>AccountNumber</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Ali</t>
   </si>
   <si>
-    <t>Cairo, Egypt</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>Giza, Egypt</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Alexandria</t>
-  </si>
-  <si>
     <t>Cairo</t>
   </si>
   <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>Lina</t>
-  </si>
-  <si>
-    <t>abc123</t>
+    <t>payeeName</t>
+  </si>
+  <si>
+    <t>payeeAddress</t>
+  </si>
+  <si>
+    <t>payeeCity</t>
+  </si>
+  <si>
+    <t>payeeState</t>
+  </si>
+  <si>
+    <t>payeeZipCode</t>
+  </si>
+  <si>
+    <t>payeePhone</t>
+  </si>
+  <si>
+    <t>payeeAccount</t>
+  </si>
+  <si>
+    <t>ConfirmAcc</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>Eg</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>Electricity Co</t>
+  </si>
+  <si>
+    <t>Nile Road</t>
+  </si>
+  <si>
+    <t>Giza</t>
+  </si>
+  <si>
+    <t>Water Co</t>
+  </si>
+  <si>
+    <t>Tahrir Sq</t>
   </si>
 </sst>
 </file>
@@ -461,113 +476,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF4985A-307E-4F8D-8629-0F7ECB4EE79C}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.77734375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="9" width="15.77734375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
+        <v>123456</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1023654</v>
+      </c>
+      <c r="G2" s="1">
+        <v>14323</v>
+      </c>
+      <c r="H2" s="1">
+        <v>14323</v>
+      </c>
+      <c r="I2" s="1">
+        <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>123456</v>
-      </c>
-      <c r="D2" s="2">
-        <v>100</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
+        <v>54321</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1023666</v>
+      </c>
+      <c r="G3" s="2">
+        <v>22334</v>
+      </c>
+      <c r="H3" s="2">
+        <v>22334</v>
+      </c>
+      <c r="I3" s="2">
+        <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
-        <v>654321</v>
-      </c>
-      <c r="D3" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>987654</v>
-      </c>
-      <c r="D4" s="2">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2">
+        <v>67890</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1023677</v>
+      </c>
+      <c r="G4" s="2">
+        <v>14323</v>
+      </c>
+      <c r="H4" s="2">
+        <v>14323</v>
+      </c>
+      <c r="I4" s="2">
         <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>112233</v>
-      </c>
-      <c r="D5" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
-        <v>445566</v>
-      </c>
-      <c r="D6" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/BillData.xlsx
+++ b/src/main/resources/BillData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\ParaBank\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91241238-B890-40F9-B427-D0388A460ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9817CAA-D9C6-4BF4-9C29-83C8E8DBDFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88A05060-9F49-4B41-BFC9-0B8A4F8DC7E7}"/>
   </bookViews>
@@ -36,63 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Ali</t>
-  </si>
-  <si>
-    <t>Cairo</t>
-  </si>
-  <si>
-    <t>payeeName</t>
-  </si>
-  <si>
-    <t>payeeAddress</t>
-  </si>
-  <si>
-    <t>payeeCity</t>
-  </si>
-  <si>
-    <t>payeeState</t>
-  </si>
-  <si>
-    <t>payeeZipCode</t>
-  </si>
-  <si>
-    <t>payeePhone</t>
-  </si>
-  <si>
-    <t>payeeAccount</t>
-  </si>
-  <si>
-    <t>ConfirmAcc</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>Ca</t>
-  </si>
-  <si>
-    <t>Eg</t>
-  </si>
-  <si>
-    <t>EG</t>
-  </si>
-  <si>
-    <t>Electricity Co</t>
-  </si>
-  <si>
-    <t>Nile Road</t>
-  </si>
-  <si>
-    <t>Giza</t>
-  </si>
-  <si>
-    <t>Water Co</t>
-  </si>
-  <si>
-    <t>Tahrir Sq</t>
+    <t>Amount</t>
   </si>
 </sst>
 </file>
@@ -103,7 +49,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -476,132 +422,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF4985A-307E-4F8D-8629-0F7ECB4EE79C}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="15.77734375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="38.796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1023654</v>
-      </c>
-      <c r="G2" s="1">
-        <v>14323</v>
-      </c>
-      <c r="H2" s="1">
-        <v>14323</v>
-      </c>
-      <c r="I2" s="1">
+    </row>
+    <row r="2" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2">
-        <v>54321</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1023666</v>
-      </c>
-      <c r="G3" s="2">
-        <v>22334</v>
-      </c>
-      <c r="H3" s="2">
-        <v>22334</v>
-      </c>
-      <c r="I3" s="2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2">
-        <v>67890</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1023677</v>
-      </c>
-      <c r="G4" s="2">
-        <v>14323</v>
-      </c>
-      <c r="H4" s="2">
-        <v>14323</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>-50</v>
       </c>
     </row>
   </sheetData>
